--- a/GetReport.xlsx
+++ b/GetReport.xlsx
@@ -41,10 +41,10 @@
     <t>10M</t>
   </si>
   <si>
-    <t>'V4.10.01'</t>
-  </si>
-  <si>
-    <t>2017-03-16 17:19 PM</t>
+    <t>V5.10.01</t>
+  </si>
+  <si>
+    <t>2017-03-17 17:20 PM</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>94秒</t>
+    <t>72秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -114,7 +114,22 @@
 </t>
   </si>
   <si>
-    <t>0</t>
+    <t>39%</t>
+  </si>
+  <si>
+    <t>89M</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -162,34 +177,19 @@
     <t>登录</t>
   </si>
   <si>
-    <t>test_login</t>
-  </si>
-  <si>
-    <t>88M</t>
-  </si>
-  <si>
-    <t>47%</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>找不到元素</t>
+    <t>login</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>成功</t>
   </si>
   <si>
     <t>退出登录</t>
   </si>
   <si>
-    <t>test_logout</t>
-  </si>
-  <si>
-    <t>46%</t>
+    <t>logout</t>
   </si>
 </sst>
 </file>
@@ -638,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -655,7 +655,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -738,19 +738,19 @@
         <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1"/>
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -794,31 +794,31 @@
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>27</v>
@@ -827,16 +827,16 @@
         <v>26</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
@@ -847,36 +847,36 @@
         <v>1002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="J3" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
@@ -888,36 +888,36 @@
         <v>1002</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
